--- a/data_target.xlsx
+++ b/data_target.xlsx
@@ -348,7 +348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1456,6 +1456,4406 @@
         <v>0</v>
       </c>
     </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="n">
+        <v>1</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="n">
+        <v>0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="n">
+        <v>0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="n">
+        <v>0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="n">
+        <v>0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="n">
+        <v>0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="n">
+        <v>0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="n">
+        <v>0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="n">
+        <v>1</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="n">
+        <v>1</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="n">
+        <v>1</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="n">
+        <v>1</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="n">
+        <v>1</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="n">
+        <v>1</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="n">
+        <v>1</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="n">
+        <v>1</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="n">
+        <v>1</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="n">
+        <v>0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="n">
+        <v>1</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="n">
+        <v>1</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="n">
+        <v>0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="n">
+        <v>1</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="n">
+        <v>1</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="n">
+        <v>0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="n">
+        <v>0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="n">
+        <v>0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="n">
+        <v>1</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="n">
+        <v>1</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="n">
+        <v>0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="n">
+        <v>1</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="n">
+        <v>0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="n">
+        <v>1</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="n">
+        <v>0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="n">
+        <v>0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="n">
+        <v>1</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="n">
+        <v>1</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="n">
+        <v>1</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="n">
+        <v>0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="n">
+        <v>1</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="n">
+        <v>1</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="n">
+        <v>0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="n">
+        <v>1</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="n">
+        <v>1</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="n">
+        <v>1</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="n">
+        <v>1</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="n">
+        <v>0</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="n">
+        <v>1</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="n">
+        <v>1</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="n">
+        <v>0</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="n">
+        <v>0</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="n">
+        <v>1</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="n">
+        <v>1</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="n">
+        <v>1</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="n">
+        <v>1</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="n">
+        <v>0</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="n">
+        <v>0</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="n">
+        <v>0</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="n">
+        <v>1</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="n">
+        <v>0</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="n">
+        <v>1</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="n">
+        <v>1</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="n">
+        <v>0</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="n">
+        <v>0</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="n">
+        <v>1</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="n">
+        <v>1</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="n">
+        <v>1</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="n">
+        <v>0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="n">
+        <v>1</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="n">
+        <v>0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="n">
+        <v>1</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="n">
+        <v>0</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="n">
+        <v>1</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="n">
+        <v>0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="n">
+        <v>0</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="n">
+        <v>1</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="n">
+        <v>1</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="n">
+        <v>1</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="n">
+        <v>1</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="n">
+        <v>1</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="n">
+        <v>1</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="n">
+        <v>1</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="n">
+        <v>1</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="n">
+        <v>1</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="n">
+        <v>1</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="n">
+        <v>1</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="n">
+        <v>1</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="n">
+        <v>1</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="n">
+        <v>1</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="n">
+        <v>1</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="n">
+        <v>1</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="n">
+        <v>1</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="n">
+        <v>1</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="n">
+        <v>1</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="n">
+        <v>1</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="n">
+        <v>1</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="n">
+        <v>1</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="n">
+        <v>1</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="n">
+        <v>1</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="n">
+        <v>1</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="n">
+        <v>1</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="n">
+        <v>1</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="n">
+        <v>1</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="n">
+        <v>1</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="n">
+        <v>1</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="n">
+        <v>0</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="n">
+        <v>0</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="n">
+        <v>0</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="n">
+        <v>1</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="n">
+        <v>1</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="n">
+        <v>1</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="n">
+        <v>1</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="n">
+        <v>0</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="n">
+        <v>0</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="n">
+        <v>0</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="n">
+        <v>1</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="n">
+        <v>1</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="n">
+        <v>1</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="n">
+        <v>1</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="n">
+        <v>1</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="n">
+        <v>1</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="n">
+        <v>0</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="n">
+        <v>1</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="n">
+        <v>1</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="n">
+        <v>1</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="n">
+        <v>1</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="n">
+        <v>1</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="n">
+        <v>1</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="n">
+        <v>0</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="n">
+        <v>0</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="n">
+        <v>1</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="n">
+        <v>1</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="n">
+        <v>0</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="n">
+        <v>1</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="n">
+        <v>1</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="n">
+        <v>0</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="n">
+        <v>1</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="n">
+        <v>1</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="n">
+        <v>1</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="n">
+        <v>0</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="n">
+        <v>1</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="n">
+        <v>1</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="n">
+        <v>1</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="n">
+        <v>1</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="n">
+        <v>1</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="n">
+        <v>1</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="n">
+        <v>1</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="n">
+        <v>1</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="n">
+        <v>1</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="n">
+        <v>1</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="n">
+        <v>1</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="n">
+        <v>1</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="n">
+        <v>1</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="n">
+        <v>1</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="n">
+        <v>1</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="n">
+        <v>1</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="n">
+        <v>1</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="n">
+        <v>1</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="n">
+        <v>1</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="n">
+        <v>1</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="n">
+        <v>1</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="n">
+        <v>1</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="n">
+        <v>1</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="n">
+        <v>1</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="n">
+        <v>1</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="n">
+        <v>1</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="n">
+        <v>1</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="n">
+        <v>1</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="n">
+        <v>1</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="n">
+        <v>1</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="n">
+        <v>1</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="n">
+        <v>1</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="n">
+        <v>1</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="n">
+        <v>1</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="n">
+        <v>1</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="n">
+        <v>1</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="n">
+        <v>1</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="n">
+        <v>1</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="n">
+        <v>0</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="n">
+        <v>1</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="n">
+        <v>0</v>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="n">
+        <v>0</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="n">
+        <v>0</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="n">
+        <v>0</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="n">
+        <v>0</v>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="n">
+        <v>0</v>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="n">
+        <v>1</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="n">
+        <v>1</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="n">
+        <v>1</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="n">
+        <v>1</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="n">
+        <v>1</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="n">
+        <v>1</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="n">
+        <v>1</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="n">
+        <v>0</v>
+      </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="n">
+        <v>0</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="n">
+        <v>0</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="n">
+        <v>0</v>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="n">
+        <v>1</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="n">
+        <v>1</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="n">
+        <v>1</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="n">
+        <v>1</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="n">
+        <v>1</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="n">
+        <v>0</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="n">
+        <v>0</v>
+      </c>
+      <c r="B303" t="n">
+        <v>1</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="n">
+        <v>0</v>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="n">
+        <v>0</v>
+      </c>
+      <c r="B305" t="n">
+        <v>1</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="n">
+        <v>0</v>
+      </c>
+      <c r="B306" t="n">
+        <v>1</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="n">
+        <v>1</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="n">
+        <v>0</v>
+      </c>
+      <c r="B308" t="n">
+        <v>1</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="n">
+        <v>0</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0</v>
+      </c>
+      <c r="C309" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="n">
+        <v>1</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="n">
+        <v>1</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="n">
+        <v>1</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="n">
+        <v>0</v>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="n">
+        <v>0</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0</v>
+      </c>
+      <c r="C314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="n">
+        <v>1</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="n">
+        <v>0</v>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="n">
+        <v>0</v>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="n">
+        <v>1</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="n">
+        <v>0</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0</v>
+      </c>
+      <c r="C319" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="n">
+        <v>1</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="n">
+        <v>1</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="n">
+        <v>1</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="n">
+        <v>0</v>
+      </c>
+      <c r="B323" t="n">
+        <v>1</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="n">
+        <v>1</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="n">
+        <v>1</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="n">
+        <v>1</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="n">
+        <v>1</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="n">
+        <v>0</v>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="n">
+        <v>1</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="n">
+        <v>1</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="n">
+        <v>1</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="n">
+        <v>1</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="n">
+        <v>1</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="n">
+        <v>1</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="n">
+        <v>0</v>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="n">
+        <v>1</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="n">
+        <v>1</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="n">
+        <v>0</v>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="n">
+        <v>1</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="n">
+        <v>1</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="n">
+        <v>1</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="n">
+        <v>1</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="n">
+        <v>1</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="n">
+        <v>1</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="n">
+        <v>1</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="n">
+        <v>0</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0</v>
+      </c>
+      <c r="C346" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="n">
+        <v>0</v>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="n">
+        <v>1</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="n">
+        <v>0</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="n">
+        <v>1</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="n">
+        <v>1</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="n">
+        <v>1</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="n">
+        <v>0</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0</v>
+      </c>
+      <c r="C353" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="n">
+        <v>0</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0</v>
+      </c>
+      <c r="C354" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="n">
+        <v>0</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0</v>
+      </c>
+      <c r="C355" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="n">
+        <v>0</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0</v>
+      </c>
+      <c r="C356" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="n">
+        <v>1</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="n">
+        <v>0</v>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="n">
+        <v>1</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="n">
+        <v>0</v>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="n">
+        <v>0</v>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="n">
+        <v>1</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="n">
+        <v>1</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="n">
+        <v>1</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="n">
+        <v>0</v>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="n">
+        <v>1</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="n">
+        <v>1</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="n">
+        <v>1</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="n">
+        <v>1</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="n">
+        <v>1</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="n">
+        <v>1</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="n">
+        <v>1</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="n">
+        <v>1</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="n">
+        <v>1</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="n">
+        <v>1</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="n">
+        <v>1</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="n">
+        <v>1</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="n">
+        <v>1</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="n">
+        <v>1</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="n">
+        <v>0</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0</v>
+      </c>
+      <c r="C380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="n">
+        <v>0</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="n">
+        <v>1</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="n">
+        <v>1</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="n">
+        <v>1</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="n">
+        <v>1</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="n">
+        <v>1</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="n">
+        <v>1</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="n">
+        <v>1</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="n">
+        <v>1</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="n">
+        <v>0</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0</v>
+      </c>
+      <c r="C390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="n">
+        <v>0</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0</v>
+      </c>
+      <c r="C391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="n">
+        <v>1</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="n">
+        <v>0</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0</v>
+      </c>
+      <c r="C393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="n">
+        <v>0</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0</v>
+      </c>
+      <c r="C394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="n">
+        <v>0</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0</v>
+      </c>
+      <c r="C395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="n">
+        <v>0</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0</v>
+      </c>
+      <c r="C396" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="n">
+        <v>0</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0</v>
+      </c>
+      <c r="C397" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="n">
+        <v>1</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="n">
+        <v>0</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0</v>
+      </c>
+      <c r="C399" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="n">
+        <v>0</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0</v>
+      </c>
+      <c r="C400" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="n">
+        <v>1</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="n">
+        <v>1</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="n">
+        <v>1</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="n">
+        <v>1</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="n">
+        <v>1</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="n">
+        <v>1</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="n">
+        <v>0</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0</v>
+      </c>
+      <c r="C407" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="n">
+        <v>1</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" t="n">
+        <v>1</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" t="n">
+        <v>1</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" t="n">
+        <v>1</v>
+      </c>
+      <c r="B411" t="n">
+        <v>0</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" t="n">
+        <v>1</v>
+      </c>
+      <c r="B412" t="n">
+        <v>0</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" t="n">
+        <v>1</v>
+      </c>
+      <c r="B413" t="n">
+        <v>0</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" t="n">
+        <v>0</v>
+      </c>
+      <c r="B414" t="n">
+        <v>0</v>
+      </c>
+      <c r="C414" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" t="n">
+        <v>0</v>
+      </c>
+      <c r="B415" t="n">
+        <v>0</v>
+      </c>
+      <c r="C415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" t="n">
+        <v>1</v>
+      </c>
+      <c r="B416" t="n">
+        <v>0</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" t="n">
+        <v>1</v>
+      </c>
+      <c r="B417" t="n">
+        <v>0</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" t="n">
+        <v>1</v>
+      </c>
+      <c r="B418" t="n">
+        <v>0</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" t="n">
+        <v>1</v>
+      </c>
+      <c r="B419" t="n">
+        <v>0</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" t="n">
+        <v>1</v>
+      </c>
+      <c r="B420" t="n">
+        <v>0</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" t="n">
+        <v>1</v>
+      </c>
+      <c r="B421" t="n">
+        <v>0</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" t="n">
+        <v>1</v>
+      </c>
+      <c r="B422" t="n">
+        <v>0</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" t="n">
+        <v>1</v>
+      </c>
+      <c r="B423" t="n">
+        <v>0</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" t="n">
+        <v>1</v>
+      </c>
+      <c r="B424" t="n">
+        <v>0</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" t="n">
+        <v>0</v>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" t="n">
+        <v>1</v>
+      </c>
+      <c r="B426" t="n">
+        <v>0</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" t="n">
+        <v>1</v>
+      </c>
+      <c r="B427" t="n">
+        <v>0</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" t="n">
+        <v>1</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" t="n">
+        <v>0</v>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" t="n">
+        <v>1</v>
+      </c>
+      <c r="B430" t="n">
+        <v>0</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" t="n">
+        <v>1</v>
+      </c>
+      <c r="B431" t="n">
+        <v>0</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" t="n">
+        <v>0</v>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" t="n">
+        <v>0</v>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+      <c r="C433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" t="n">
+        <v>1</v>
+      </c>
+      <c r="B434" t="n">
+        <v>0</v>
+      </c>
+      <c r="C434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" t="n">
+        <v>1</v>
+      </c>
+      <c r="B435" t="n">
+        <v>0</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" t="n">
+        <v>1</v>
+      </c>
+      <c r="B436" t="n">
+        <v>0</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" t="n">
+        <v>0</v>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+      <c r="C437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" t="n">
+        <v>1</v>
+      </c>
+      <c r="B438" t="n">
+        <v>0</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" t="n">
+        <v>1</v>
+      </c>
+      <c r="B439" t="n">
+        <v>0</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" t="n">
+        <v>1</v>
+      </c>
+      <c r="B440" t="n">
+        <v>0</v>
+      </c>
+      <c r="C440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" t="n">
+        <v>1</v>
+      </c>
+      <c r="B441" t="n">
+        <v>0</v>
+      </c>
+      <c r="C441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" t="n">
+        <v>1</v>
+      </c>
+      <c r="B442" t="n">
+        <v>0</v>
+      </c>
+      <c r="C442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" t="n">
+        <v>1</v>
+      </c>
+      <c r="B443" t="n">
+        <v>0</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" t="n">
+        <v>0</v>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" t="n">
+        <v>1</v>
+      </c>
+      <c r="B445" t="n">
+        <v>0</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" t="n">
+        <v>0</v>
+      </c>
+      <c r="B446" t="n">
+        <v>0</v>
+      </c>
+      <c r="C446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" t="n">
+        <v>1</v>
+      </c>
+      <c r="B447" t="n">
+        <v>0</v>
+      </c>
+      <c r="C447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" t="n">
+        <v>1</v>
+      </c>
+      <c r="B448" t="n">
+        <v>0</v>
+      </c>
+      <c r="C448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" t="n">
+        <v>1</v>
+      </c>
+      <c r="B449" t="n">
+        <v>0</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" t="n">
+        <v>1</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" t="n">
+        <v>1</v>
+      </c>
+      <c r="B451" t="n">
+        <v>0</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" t="n">
+        <v>0</v>
+      </c>
+      <c r="B452" t="n">
+        <v>1</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" t="n">
+        <v>1</v>
+      </c>
+      <c r="B453" t="n">
+        <v>0</v>
+      </c>
+      <c r="C453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" t="n">
+        <v>1</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0</v>
+      </c>
+      <c r="C454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" t="n">
+        <v>1</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0</v>
+      </c>
+      <c r="C455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" t="n">
+        <v>1</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" t="n">
+        <v>1</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0</v>
+      </c>
+      <c r="C457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" t="n">
+        <v>1</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0</v>
+      </c>
+      <c r="C458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" t="n">
+        <v>1</v>
+      </c>
+      <c r="B459" t="n">
+        <v>0</v>
+      </c>
+      <c r="C459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" t="n">
+        <v>1</v>
+      </c>
+      <c r="B460" t="n">
+        <v>0</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" t="n">
+        <v>1</v>
+      </c>
+      <c r="B461" t="n">
+        <v>0</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" t="n">
+        <v>1</v>
+      </c>
+      <c r="B462" t="n">
+        <v>0</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" t="n">
+        <v>1</v>
+      </c>
+      <c r="B463" t="n">
+        <v>0</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" t="n">
+        <v>1</v>
+      </c>
+      <c r="B464" t="n">
+        <v>0</v>
+      </c>
+      <c r="C464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" t="n">
+        <v>1</v>
+      </c>
+      <c r="B465" t="n">
+        <v>0</v>
+      </c>
+      <c r="C465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" t="n">
+        <v>1</v>
+      </c>
+      <c r="B466" t="n">
+        <v>0</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" t="n">
+        <v>1</v>
+      </c>
+      <c r="B467" t="n">
+        <v>0</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" t="n">
+        <v>1</v>
+      </c>
+      <c r="B468" t="n">
+        <v>0</v>
+      </c>
+      <c r="C468" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" t="n">
+        <v>1</v>
+      </c>
+      <c r="B469" t="n">
+        <v>0</v>
+      </c>
+      <c r="C469" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" t="n">
+        <v>1</v>
+      </c>
+      <c r="B470" t="n">
+        <v>0</v>
+      </c>
+      <c r="C470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" t="n">
+        <v>1</v>
+      </c>
+      <c r="B471" t="n">
+        <v>0</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" t="n">
+        <v>1</v>
+      </c>
+      <c r="B472" t="n">
+        <v>0</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" t="n">
+        <v>1</v>
+      </c>
+      <c r="B473" t="n">
+        <v>0</v>
+      </c>
+      <c r="C473" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" t="n">
+        <v>1</v>
+      </c>
+      <c r="B474" t="n">
+        <v>0</v>
+      </c>
+      <c r="C474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" t="n">
+        <v>1</v>
+      </c>
+      <c r="B475" t="n">
+        <v>0</v>
+      </c>
+      <c r="C475" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" t="n">
+        <v>1</v>
+      </c>
+      <c r="B476" t="n">
+        <v>0</v>
+      </c>
+      <c r="C476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" t="n">
+        <v>1</v>
+      </c>
+      <c r="B477" t="n">
+        <v>0</v>
+      </c>
+      <c r="C477" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" t="n">
+        <v>1</v>
+      </c>
+      <c r="B478" t="n">
+        <v>0</v>
+      </c>
+      <c r="C478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" t="n">
+        <v>0</v>
+      </c>
+      <c r="B479" t="n">
+        <v>1</v>
+      </c>
+      <c r="C479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" t="n">
+        <v>1</v>
+      </c>
+      <c r="B480" t="n">
+        <v>0</v>
+      </c>
+      <c r="C480" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" t="n">
+        <v>1</v>
+      </c>
+      <c r="B481" t="n">
+        <v>0</v>
+      </c>
+      <c r="C481" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" t="n">
+        <v>1</v>
+      </c>
+      <c r="B482" t="n">
+        <v>0</v>
+      </c>
+      <c r="C482" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" t="n">
+        <v>1</v>
+      </c>
+      <c r="B483" t="n">
+        <v>0</v>
+      </c>
+      <c r="C483" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" t="n">
+        <v>1</v>
+      </c>
+      <c r="B484" t="n">
+        <v>0</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" t="n">
+        <v>1</v>
+      </c>
+      <c r="B485" t="n">
+        <v>0</v>
+      </c>
+      <c r="C485" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" t="n">
+        <v>1</v>
+      </c>
+      <c r="B486" t="n">
+        <v>0</v>
+      </c>
+      <c r="C486" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" t="n">
+        <v>1</v>
+      </c>
+      <c r="B487" t="n">
+        <v>0</v>
+      </c>
+      <c r="C487" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" t="n">
+        <v>1</v>
+      </c>
+      <c r="B488" t="n">
+        <v>0</v>
+      </c>
+      <c r="C488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" t="n">
+        <v>1</v>
+      </c>
+      <c r="B489" t="n">
+        <v>0</v>
+      </c>
+      <c r="C489" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" t="n">
+        <v>1</v>
+      </c>
+      <c r="B490" t="n">
+        <v>0</v>
+      </c>
+      <c r="C490" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" t="n">
+        <v>1</v>
+      </c>
+      <c r="B491" t="n">
+        <v>0</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" t="n">
+        <v>0</v>
+      </c>
+      <c r="B492" t="n">
+        <v>0</v>
+      </c>
+      <c r="C492" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" t="n">
+        <v>1</v>
+      </c>
+      <c r="B493" t="n">
+        <v>0</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" t="n">
+        <v>1</v>
+      </c>
+      <c r="B494" t="n">
+        <v>0</v>
+      </c>
+      <c r="C494" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" t="n">
+        <v>1</v>
+      </c>
+      <c r="B495" t="n">
+        <v>0</v>
+      </c>
+      <c r="C495" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" t="n">
+        <v>1</v>
+      </c>
+      <c r="B496" t="n">
+        <v>0</v>
+      </c>
+      <c r="C496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" t="n">
+        <v>1</v>
+      </c>
+      <c r="B497" t="n">
+        <v>0</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" t="n">
+        <v>1</v>
+      </c>
+      <c r="B498" t="n">
+        <v>0</v>
+      </c>
+      <c r="C498" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" t="n">
+        <v>1</v>
+      </c>
+      <c r="B499" t="n">
+        <v>0</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" t="n">
+        <v>0</v>
+      </c>
+      <c r="B500" t="n">
+        <v>0</v>
+      </c>
+      <c r="C500" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
